--- a/src/services/templates/templateAssets.xlsx
+++ b/src/services/templates/templateAssets.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2C7269-80AC-4640-94D9-7C58D46198B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F937416-7247-9D4C-829E-98A2746676F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48440" yWindow="6560" windowWidth="36340" windowHeight="18060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4000" yWindow="5700" windowWidth="36340" windowHeight="18060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -73,6 +74,100 @@
   </si>
   <si>
     <t>KeyValueList</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Bool</t>
+  </si>
+  <si>
+    <t>アセット名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PerRobot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑ ロボット毎のAssetをつくる場合、PerRobot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Credential (まだ未対応です)</t>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">ミタイオウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>Bool01</t>
+  </si>
+  <si>
+    <t>I001</t>
+  </si>
+  <si>
+    <t>Int01</t>
+  </si>
+  <si>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>KINO</t>
+  </si>
+  <si>
+    <t>Text01</t>
+  </si>
+  <si>
+    <t>KINO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ValueTypeによって使い分ける</t>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">ツカイワケル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑TRUE or FALSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑アップロード時は使用しません</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">シヨウシマセン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セツメイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -193,7 +288,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +382,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -561,6 +662,14 @@
     <xf numFmtId="0" fontId="15" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -844,7 +953,8 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14"/>
@@ -921,4 +1031,271 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2908016F-79E9-3B42-B88A-5018B4650EBE}">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>30</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+    </row>
+    <row r="6" spans="1:16" s="20" customFormat="1">
+      <c r="A6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="1:16" s="20" customFormat="1">
+      <c r="C7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21">
+        <v>30</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="20" customFormat="1">
+      <c r="C8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="I8" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="20" customFormat="1">
+      <c r="C9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:16" s="20" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>